--- a/Data Analysis/diseases.xlsx
+++ b/Data Analysis/diseases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\קובי\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoni\RiderProjects\Hackathon-Project-2022\Hackathon-Project-2022\Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C902E3FA-BF22-41D9-AA1E-81F5D370D99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70714D1-DA75-42BE-AEB2-8AE07393DD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2316" windowWidth="7500" windowHeight="6000" xr2:uid="{F606995D-CB48-4B0A-89F3-528DA61072A8}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15345" xr2:uid="{F606995D-CB48-4B0A-89F3-528DA61072A8}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Atherosclerosis</t>
   </si>
@@ -52,15 +52,6 @@
     <t>general weakness.</t>
   </si>
   <si>
-    <t>smoking</t>
-  </si>
-  <si>
-    <t>diabetes mellitus</t>
-  </si>
-  <si>
-    <t>obesity</t>
-  </si>
-  <si>
     <t>high blood pressure</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
   </si>
   <si>
     <t>Difficulty breathing</t>
-  </si>
-  <si>
-    <t>Mainly appears in the elderly and diabetics</t>
   </si>
   <si>
     <t>cardiac shock</t>
@@ -204,7 +192,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -212,7 +200,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -220,7 +208,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -288,7 +276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -586,21 +574,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA58E73F-1BF8-40A7-8F18-5F4947859FCE}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -608,112 +596,112 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -721,90 +709,76 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Analysis/diseases.xlsx
+++ b/Data Analysis/diseases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoni\RiderProjects\Hackathon-Project-2022\Hackathon-Project-2022\Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70714D1-DA75-42BE-AEB2-8AE07393DD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788BC8B2-7B12-4116-A4FE-599C67168C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15345" xr2:uid="{F606995D-CB48-4B0A-89F3-528DA61072A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DB5192A0-60F0-496E-B50F-4B3267B5BAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -35,160 +35,167 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
-  <si>
-    <t>Atherosclerosis</t>
-  </si>
-  <si>
-    <t>Limitation in the ability to make an effort</t>
-  </si>
-  <si>
-    <t>Shortness of breath</t>
-  </si>
-  <si>
-    <t>increased sweating (cold)</t>
-  </si>
-  <si>
-    <t>general weakness.</t>
-  </si>
-  <si>
-    <t>high blood pressure</t>
-  </si>
-  <si>
-    <t>Stable angina</t>
-  </si>
-  <si>
-    <t>Familiar chest pain</t>
-  </si>
-  <si>
-    <t>Pain passes after a few minutes</t>
-  </si>
-  <si>
-    <t>appears after effort</t>
-  </si>
-  <si>
-    <t>appears excitedly</t>
-  </si>
-  <si>
-    <t>Unstable angina</t>
-  </si>
-  <si>
-    <t>Unrecognized sudden pain</t>
-  </si>
-  <si>
-    <t>Pain that does not go away even after fifteen minutes</t>
-  </si>
-  <si>
-    <t>Pressing pain in the chest</t>
-  </si>
-  <si>
-    <t>Pain radiating to other areas</t>
-  </si>
-  <si>
-    <t>paleness and sweating</t>
-  </si>
-  <si>
-    <t>Nausea and vomiting</t>
-  </si>
-  <si>
-    <t>Feel the heartbeat</t>
-  </si>
-  <si>
-    <t>myocardial infarction (heart attack)</t>
-  </si>
-  <si>
-    <t>Pressing pain in the chest that does not change with touch/breathing/position</t>
-  </si>
-  <si>
-    <t>The projection of the pain to other areas</t>
-  </si>
-  <si>
-    <t>fear and anxiety</t>
-  </si>
-  <si>
-    <t>extreme weakness.</t>
-  </si>
-  <si>
-    <t>Silent infarct</t>
-  </si>
-  <si>
-    <t>general weakness</t>
-  </si>
-  <si>
-    <t>Difficulty breathing</t>
-  </si>
-  <si>
-    <t>cardiac shock</t>
-  </si>
-  <si>
-    <t>general bad feeling</t>
-  </si>
-  <si>
-    <t>extreme weakness</t>
-  </si>
-  <si>
-    <t>quick breathing</t>
-  </si>
-  <si>
-    <t>Pale and cold skin</t>
-  </si>
-  <si>
-    <t>Slow capillary refill</t>
-  </si>
-  <si>
-    <t>Right heart failure</t>
-  </si>
-  <si>
-    <t>Edema in the limbs</t>
-  </si>
-  <si>
-    <t>Congestion in the veins of the neck</t>
-  </si>
-  <si>
-    <t>Dissection of the aorta</t>
-  </si>
-  <si>
-    <t>Stabbing/tearing pains between the shoulder blades or in the center of the chest</t>
-  </si>
-  <si>
-    <t>Pain in the chest or upper back that radiates along the back or neck</t>
-  </si>
-  <si>
-    <t>Strong stomach pains</t>
-  </si>
-  <si>
-    <t>Leg pain or even paralysis</t>
-  </si>
-  <si>
-    <t>Pain in waves according to heartbeats</t>
-  </si>
-  <si>
-    <t>Blood pressure is different between the 2 limbs</t>
-  </si>
-  <si>
-    <t>Pulmonary edema</t>
-  </si>
-  <si>
-    <t>Difficulty breathing accompanied by wheezing</t>
-  </si>
-  <si>
-    <t>cough</t>
-  </si>
-  <si>
-    <t>rapid heartbeat</t>
-  </si>
-  <si>
-    <t>paleness and cold sweat</t>
-  </si>
-  <si>
-    <t>restlessness</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+  <si>
+    <t>הגבלה ביכולת לעשות מאמץ</t>
+  </si>
+  <si>
+    <t>קוצר נשימה</t>
+  </si>
+  <si>
+    <t>הזעה מוגברת (קרה)</t>
+  </si>
+  <si>
+    <t>חולשה כללית</t>
+  </si>
+  <si>
+    <t>כאב מוכר בחזה</t>
+  </si>
+  <si>
+    <t>כאב חולף אחרי מספר דקות</t>
+  </si>
+  <si>
+    <t>כאב פתאומי לא מוכר</t>
+  </si>
+  <si>
+    <t>כאב שלא חולף גם אחרי רבע שעה</t>
+  </si>
+  <si>
+    <t>כאב לוחץ בבית חזה</t>
+  </si>
+  <si>
+    <t>כאב מקרין לאזורים נוספים</t>
+  </si>
+  <si>
+    <t>חיוורון והזעה</t>
+  </si>
+  <si>
+    <t>כאב לוחץ בבית החזה שלא משתנה במגע/נשימה/תנוחה</t>
+  </si>
+  <si>
+    <t>בחילות והקאות</t>
+  </si>
+  <si>
+    <t>חולשה קיצונית</t>
+  </si>
+  <si>
+    <t>קושי בנשימה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> חיוורון והזעה</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">בעיקר </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>מופיע אצל קשישים וחולי סכרת</t>
+    </r>
+  </si>
+  <si>
+    <t>קושי נשימה מלווה בחרחורים ושיעול</t>
+  </si>
+  <si>
+    <t>חיוורון והזעה קרה</t>
+  </si>
+  <si>
+    <t>דופק מהיר</t>
+  </si>
+  <si>
+    <t>נפיחות של הבטן</t>
+  </si>
+  <si>
+    <t>נשימה מהירה</t>
+  </si>
+  <si>
+    <t>מילוי קפילרי איטי</t>
+  </si>
+  <si>
+    <t>בצקות בגפיים</t>
+  </si>
+  <si>
+    <t>כאבים דוקרים/ קורעים בין השכמות או במרכז בית החזה</t>
+  </si>
+  <si>
+    <t>כאבים בחזה או בגב עליון שמקרינים לאורך הגב או לצוואר</t>
+  </si>
+  <si>
+    <t>לחץ דם שונה בין 2 הגפיים</t>
+  </si>
+  <si>
+    <t>תעוקת חזה לא יציבה. דחוף! נט"ן הושבה והרגעה, אספירין (שלילת התוויות נגד).</t>
+  </si>
+  <si>
+    <t>אוטם בשריר הלב (התקף לב). דחוף! נט"ן הושבה והרגעה, אספירין ( שלילת התוויות נגד).</t>
+  </si>
+  <si>
+    <t>אוטם שקט, דחוף! נט"ן הושבה והרגעה, אספירין ( שלילת התוויות נגד).</t>
+  </si>
+  <si>
+    <t>בצקת ריאות, דחוף! נט"ן, השכבה.</t>
+  </si>
+  <si>
+    <t>הלם לבבי, דחוף! נט"ן, השכבה.</t>
+  </si>
+  <si>
+    <t>אי ספיקת לב ימין, נט"ן בשיקול דעתך</t>
+  </si>
+  <si>
+    <t>דיסקציה של האאורטה, דחוף! נט"ן.</t>
+  </si>
+  <si>
+    <t>טרשת עורקים, לא דחוף.</t>
+  </si>
+  <si>
+    <t>תעוקת חזה יציבה, לא דחוף.</t>
+  </si>
+  <si>
+    <t>מרגיש את הדפיקות לב</t>
+  </si>
+  <si>
+    <t>כאבים ברגליים או שיתוק</t>
+  </si>
+  <si>
+    <t>מופיע אחרי מאמץ/ התרגשות</t>
+  </si>
+  <si>
+    <t>כאבי בטן</t>
+  </si>
+  <si>
+    <t>fghfgh</t>
+  </si>
+  <si>
+    <t>fghfghf</t>
+  </si>
+  <si>
+    <t>fghfghfgh</t>
+  </si>
+  <si>
+    <t>ftgyhj</t>
+  </si>
+  <si>
+    <t>fhjf</t>
+  </si>
+  <si>
+    <t>fghj</t>
+  </si>
+  <si>
+    <t>hj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +205,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -206,24 +236,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,16 +265,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,217 +584,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA58E73F-1BF8-40A7-8F18-5F4947859FCE}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883DBFA1-636A-486E-8273-C072F5BC12B2}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>